--- a/reports/_AJT_SUMMIT ALLIANCE PORT LIMITED (OCL)_import_container_report_2018-12-03_30_.xlsx
+++ b/reports/_AJT_SUMMIT ALLIANCE PORT LIMITED (OCL)_import_container_report_2018-12-03_30_.xlsx
@@ -1892,10 +1892,10 @@
           <t>SAPL-OCL/IEIR/2018/6</t>
         </is>
       </c>
-      <c r="X6" s="0" t="d">
+      <c r="X6" s="4" t="d">
         <v>2018-10-03T09:53:46.593</v>
       </c>
-      <c r="Y6" s="0" t="d">
+      <c r="Y6" s="4" t="d">
         <v>2018-10-03T16:25:04.979</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="V6" s="0"/>
-      <c r="W6" s="0" t="d">
+      <c r="W6" s="4" t="d">
         <v>2018-10-04T10:32:52.385</v>
       </c>
     </row>

--- a/reports/_AJT_SUMMIT ALLIANCE PORT LIMITED (OCL)_import_container_report_2018-12-03_30_.xlsx
+++ b/reports/_AJT_SUMMIT ALLIANCE PORT LIMITED (OCL)_import_container_report_2018-12-03_30_.xlsx
@@ -1639,7 +1639,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:2</t>
+          <t>Total number of containers:2</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:2</t>
+          <t>Total number of containers:2</t>
         </is>
       </c>
     </row>
